--- a/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\Revisiones cuaderno y recursos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="262">
   <si>
     <t>Asignatura</t>
   </si>
@@ -624,9 +619,6 @@
   </si>
   <si>
     <t>Fin de tema</t>
-  </si>
-  <si>
-    <t>Competencias</t>
   </si>
   <si>
     <t>Banco de actividades</t>
@@ -1076,63 +1068,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1189,6 +1124,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1285,7 +1277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1496,125 +1488,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="23" style="39" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="31" style="39" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="11" style="49" customWidth="1"/>
-    <col min="10" max="10" width="78.42578125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="39" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="49" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="49" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="49" customWidth="1"/>
-    <col min="18" max="18" width="23" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="39" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="39"/>
+    <col min="1" max="1" width="16.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="11" style="30" customWidth="1"/>
+    <col min="10" max="10" width="78.42578125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="20" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="30" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="30" customWidth="1"/>
+    <col min="18" max="18" width="23" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="20" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="35" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="22"/>
+    <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="31"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1631,7 +1623,7 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="17" t="s">
         <v>124</v>
       </c>
       <c r="H3" s="11">
@@ -1640,7 +1632,7 @@
       <c r="I3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="18" t="s">
         <v>159</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -1653,24 +1645,24 @@
         <v>54</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="57">
+      <c r="O3" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="38">
         <v>6</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="S3" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="T3" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="U3" s="38" t="s">
         <v>226</v>
-      </c>
-      <c r="U3" s="57" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1686,18 +1678,18 @@
       <c r="D4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="23">
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="18" t="s">
         <v>160</v>
       </c>
       <c r="K4" s="6" t="s">
@@ -1708,22 +1700,22 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="57">
+      <c r="O4" s="24"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="38">
         <v>8</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S4" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="T4" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1739,18 +1731,18 @@
       <c r="D5" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="34" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="23">
         <v>3</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="18" t="s">
         <v>161</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -1763,24 +1755,24 @@
       <c r="N5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="57">
+      <c r="O5" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="38">
         <v>6</v>
       </c>
-      <c r="R5" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S5" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T5" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="U5" s="57" t="s">
-        <v>216</v>
+      <c r="R5" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="U5" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1796,9 +1788,9 @@
       <c r="D6" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="34" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="15" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="11">
@@ -1807,7 +1799,7 @@
       <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="18" t="s">
         <v>162</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -1818,24 +1810,24 @@
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="57">
+      <c r="O6" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="38">
         <v>6</v>
       </c>
-      <c r="R6" s="58" t="s">
+      <c r="R6" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S6" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="T6" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="U6" s="38" t="s">
         <v>212</v>
-      </c>
-      <c r="T6" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="U6" s="57" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1851,18 +1843,18 @@
       <c r="D7" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="34" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="23">
         <v>5</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="25" t="s">
         <v>163</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -1875,24 +1867,24 @@
       <c r="N7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="57">
+      <c r="O7" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="38">
         <v>6</v>
       </c>
-      <c r="R7" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S7" s="57" t="s">
+      <c r="R7" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="T7" s="59" t="s">
+      <c r="U7" s="38" t="s">
         <v>215</v>
-      </c>
-      <c r="U7" s="57" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1908,9 +1900,9 @@
       <c r="D8" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="34" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H8" s="11">
@@ -1919,7 +1911,7 @@
       <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="18" t="s">
         <v>164</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -1930,22 +1922,22 @@
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="57">
+      <c r="O8" s="24"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="38">
         <v>8</v>
       </c>
-      <c r="R8" s="58" t="s">
+      <c r="R8" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S8" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="S8" s="57" t="s">
+      <c r="T8" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="U8" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="T8" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="U8" s="57" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1961,18 +1953,18 @@
       <c r="D9" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="34" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="23">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="18" t="s">
         <v>165</v>
       </c>
       <c r="K9" s="6" t="s">
@@ -1985,24 +1977,24 @@
       <c r="N9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="57">
+      <c r="O9" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="38">
         <v>6</v>
       </c>
-      <c r="R9" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S9" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T9" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="U9" s="57" t="s">
+      <c r="R9" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T9" s="40" t="s">
         <v>216</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2018,20 +2010,20 @@
       <c r="D10" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="23">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="26" t="s">
         <v>189</v>
       </c>
       <c r="K10" s="6" t="s">
@@ -2044,22 +2036,22 @@
       <c r="N10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="57">
+      <c r="O10" s="24"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="38">
         <v>6</v>
       </c>
-      <c r="R10" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S10" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T10" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="U10" s="57" t="s">
-        <v>216</v>
+      <c r="R10" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2072,12 +2064,12 @@
       <c r="C11" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="34" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="15" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="11">
@@ -2086,7 +2078,7 @@
       <c r="I11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="26" t="s">
         <v>166</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -2097,22 +2089,22 @@
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="57">
+      <c r="O11" s="24"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="38">
         <v>5</v>
       </c>
-      <c r="R11" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S11" s="57" t="s">
+      <c r="R11" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S11" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="T11" s="60" t="s">
+      <c r="T11" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="U11" s="57" t="s">
-        <v>205</v>
+      <c r="U11" s="38" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2125,21 +2117,21 @@
       <c r="C12" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="34" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="23">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="26" t="s">
         <v>190</v>
       </c>
       <c r="K12" s="6" t="s">
@@ -2152,22 +2144,22 @@
       <c r="N12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="57">
+      <c r="O12" s="24"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="38">
         <v>6</v>
       </c>
-      <c r="R12" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S12" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T12" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="U12" s="57" t="s">
-        <v>216</v>
+      <c r="R12" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S12" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2180,12 +2172,12 @@
       <c r="C13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="34" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="15" t="s">
         <v>133</v>
       </c>
       <c r="H13" s="11">
@@ -2194,7 +2186,7 @@
       <c r="I13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="18" t="s">
         <v>167</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -2207,24 +2199,24 @@
       <c r="N13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="57">
+      <c r="O13" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="38">
         <v>6</v>
       </c>
-      <c r="R13" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S13" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T13" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="U13" s="57" t="s">
-        <v>216</v>
+      <c r="R13" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T13" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="U13" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2237,23 +2229,23 @@
       <c r="C14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="23">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="26" t="s">
         <v>168</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -2266,22 +2258,22 @@
       <c r="N14" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="57">
+      <c r="O14" s="19"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="38">
         <v>6</v>
       </c>
-      <c r="R14" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S14" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T14" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="U14" s="57" t="s">
-        <v>216</v>
+      <c r="R14" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T14" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2294,21 +2286,21 @@
       <c r="C15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="34" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="23">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="26" t="s">
         <v>169</v>
       </c>
       <c r="K15" s="6" t="s">
@@ -2319,22 +2311,22 @@
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="57">
+      <c r="O15" s="24"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="38">
         <v>8</v>
       </c>
-      <c r="R15" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S15" s="57" t="s">
+      <c r="R15" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S15" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="T15" s="60" t="s">
+      <c r="T15" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="U15" s="57" t="s">
-        <v>206</v>
+      <c r="U15" s="38" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2347,12 +2339,12 @@
       <c r="C16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="34" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H16" s="11">
@@ -2361,7 +2353,7 @@
       <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="26" t="s">
         <v>170</v>
       </c>
       <c r="K16" s="6" t="s">
@@ -2372,22 +2364,22 @@
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="57">
+      <c r="O16" s="24"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="38">
         <v>8</v>
       </c>
-      <c r="R16" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S16" s="57" t="s">
+      <c r="R16" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S16" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="T16" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="U16" s="57" t="s">
+      <c r="T16" s="41" t="s">
         <v>206</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2400,21 +2392,21 @@
       <c r="C17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="34" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="23">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="18" t="s">
         <v>171</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -2427,24 +2419,24 @@
       <c r="N17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="57">
+      <c r="O17" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="38">
         <v>6</v>
       </c>
-      <c r="R17" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S17" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T17" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="U17" s="57" t="s">
-        <v>216</v>
+      <c r="R17" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T17" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2457,12 +2449,12 @@
       <c r="C18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="34" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="15" t="s">
         <v>138</v>
       </c>
       <c r="H18" s="11">
@@ -2471,7 +2463,7 @@
       <c r="I18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="18" t="s">
         <v>172</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -2484,24 +2476,24 @@
       <c r="N18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="57">
+      <c r="O18" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="38">
         <v>6</v>
       </c>
-      <c r="R18" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S18" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="U18" s="57" t="s">
-        <v>216</v>
+      <c r="R18" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2514,23 +2506,23 @@
       <c r="C19" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="34" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="23">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="18" t="s">
         <v>173</v>
       </c>
       <c r="K19" s="6" t="s">
@@ -2543,22 +2535,22 @@
       <c r="N19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="57">
+      <c r="O19" s="19"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="38">
         <v>6</v>
       </c>
-      <c r="R19" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S19" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T19" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="U19" s="57" t="s">
-        <v>216</v>
+      <c r="R19" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2571,21 +2563,21 @@
       <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="34" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="23">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="18" t="s">
         <v>174</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -2598,24 +2590,24 @@
       <c r="N20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="57">
+      <c r="O20" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="38">
         <v>6</v>
       </c>
-      <c r="R20" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S20" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T20" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="U20" s="57" t="s">
-        <v>216</v>
+      <c r="R20" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S20" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T20" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2628,12 +2620,12 @@
       <c r="C21" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="34" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="15" t="s">
         <v>141</v>
       </c>
       <c r="H21" s="11">
@@ -2642,7 +2634,7 @@
       <c r="I21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="28" t="s">
         <v>175</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -2653,22 +2645,22 @@
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="57">
+      <c r="O21" s="24"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="38">
         <v>8</v>
       </c>
-      <c r="R21" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S21" s="57" t="s">
+      <c r="R21" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S21" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="T21" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="U21" s="57" t="s">
-        <v>206</v>
+      <c r="T21" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2681,21 +2673,21 @@
       <c r="C22" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="34" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="23">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="29" t="s">
         <v>163</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -2706,22 +2698,22 @@
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="57">
+      <c r="O22" s="24"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="38">
         <v>8</v>
       </c>
-      <c r="R22" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S22" s="57" t="s">
+      <c r="R22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S22" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="T22" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="U22" s="57" t="s">
-        <v>206</v>
+      <c r="T22" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2734,12 +2726,12 @@
       <c r="C23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="34" t="s">
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="15" t="s">
         <v>143</v>
       </c>
       <c r="H23" s="11">
@@ -2748,7 +2740,7 @@
       <c r="I23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="29" t="s">
         <v>176</v>
       </c>
       <c r="K23" s="6" t="s">
@@ -2761,24 +2753,24 @@
         <v>55</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="57">
+      <c r="O23" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="38">
         <v>6</v>
       </c>
-      <c r="R23" s="58" t="s">
+      <c r="R23" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="S23" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="S23" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="T23" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="U23" s="57" t="s">
+      <c r="T23" s="40" t="s">
         <v>227</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2791,23 +2783,23 @@
       <c r="C24" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="34" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="23">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="26" t="s">
         <v>177</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -2820,24 +2812,24 @@
       <c r="N24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="57">
+      <c r="O24" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="38">
         <v>6</v>
       </c>
-      <c r="R24" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S24" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T24" s="59" t="s">
-        <v>259</v>
-      </c>
-      <c r="U24" s="57" t="s">
-        <v>216</v>
+      <c r="R24" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T24" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2850,21 +2842,21 @@
       <c r="C25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="34" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="23">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="26" t="s">
         <v>178</v>
       </c>
       <c r="K25" s="6" t="s">
@@ -2875,22 +2867,22 @@
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="57">
+      <c r="O25" s="19"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="38">
         <v>6</v>
       </c>
-      <c r="R25" s="58" t="s">
+      <c r="R25" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S25" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="S25" s="57" t="s">
+      <c r="T25" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="U25" s="38" t="s">
         <v>212</v>
-      </c>
-      <c r="T25" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="U25" s="57" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2903,12 +2895,12 @@
       <c r="C26" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="34" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="15" t="s">
         <v>146</v>
       </c>
       <c r="H26" s="11">
@@ -2917,7 +2909,7 @@
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="18" t="s">
         <v>179</v>
       </c>
       <c r="K26" s="6" t="s">
@@ -2930,24 +2922,24 @@
       <c r="N26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O26" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="57">
+      <c r="O26" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="38">
         <v>6</v>
       </c>
-      <c r="R26" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S26" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T26" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="U26" s="57" t="s">
-        <v>216</v>
+      <c r="R26" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S26" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T26" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="U26" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2960,21 +2952,21 @@
       <c r="C27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="34" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="23">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="25" t="s">
         <v>163</v>
       </c>
       <c r="K27" s="6" t="s">
@@ -2987,24 +2979,24 @@
       <c r="N27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="57">
+      <c r="O27" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="38">
         <v>6</v>
       </c>
-      <c r="R27" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S27" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T27" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="U27" s="57" t="s">
-        <v>216</v>
+      <c r="R27" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T27" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3017,14 +3009,14 @@
       <c r="C28" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="34" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="15" t="s">
         <v>148</v>
       </c>
       <c r="H28" s="11">
@@ -3033,7 +3025,7 @@
       <c r="I28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="26" t="s">
         <v>183</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -3046,22 +3038,22 @@
       <c r="N28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="57">
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="38">
         <v>6</v>
       </c>
-      <c r="R28" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S28" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T28" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="U28" s="57" t="s">
-        <v>216</v>
+      <c r="R28" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T28" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="U28" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3074,21 +3066,21 @@
       <c r="C29" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="34" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="23">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="26" t="s">
         <v>180</v>
       </c>
       <c r="K29" s="6" t="s">
@@ -3101,22 +3093,22 @@
       <c r="N29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="57">
+      <c r="O29" s="19"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="38">
         <v>6</v>
       </c>
-      <c r="R29" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S29" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T29" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="U29" s="57" t="s">
-        <v>216</v>
+      <c r="R29" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S29" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T29" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="U29" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3129,21 +3121,21 @@
       <c r="C30" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="34" t="s">
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="23">
         <v>28</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="44" t="s">
+      <c r="J30" s="25" t="s">
         <v>163</v>
       </c>
       <c r="K30" s="6" t="s">
@@ -3156,24 +3148,24 @@
       <c r="N30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="57">
+      <c r="O30" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="38">
         <v>6</v>
       </c>
-      <c r="R30" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S30" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T30" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="U30" s="57" t="s">
-        <v>216</v>
+      <c r="R30" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S30" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T30" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="U30" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3186,14 +3178,14 @@
       <c r="C31" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="34" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="15" t="s">
         <v>151</v>
       </c>
       <c r="H31" s="11">
@@ -3202,7 +3194,7 @@
       <c r="I31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="26" t="s">
         <v>184</v>
       </c>
       <c r="K31" s="6" t="s">
@@ -3215,24 +3207,24 @@
       <c r="N31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="57">
+      <c r="O31" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="38">
         <v>6</v>
       </c>
-      <c r="R31" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S31" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T31" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="U31" s="57" t="s">
-        <v>216</v>
+      <c r="R31" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S31" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T31" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="U31" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3245,21 +3237,21 @@
       <c r="C32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="34" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="23">
         <v>30</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="18" t="s">
         <v>181</v>
       </c>
       <c r="K32" s="6" t="s">
@@ -3270,22 +3262,22 @@
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="57">
+      <c r="O32" s="19"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="38">
         <v>8</v>
       </c>
-      <c r="R32" s="58" t="s">
+      <c r="R32" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S32" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="S32" s="57" t="s">
+      <c r="T32" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="U32" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="T32" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="U32" s="57" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3298,12 +3290,12 @@
       <c r="C33" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="34" t="s">
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="15" t="s">
         <v>153</v>
       </c>
       <c r="H33" s="11">
@@ -3312,7 +3304,7 @@
       <c r="I33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="26" t="s">
         <v>182</v>
       </c>
       <c r="K33" s="6" t="s">
@@ -3323,24 +3315,24 @@
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="38" t="s">
+      <c r="O33" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="57">
+      <c r="P33" s="22"/>
+      <c r="Q33" s="38">
         <v>8</v>
       </c>
-      <c r="R33" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S33" s="57" t="s">
+      <c r="R33" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S33" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="T33" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="U33" s="57" t="s">
-        <v>206</v>
+      <c r="T33" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="U33" s="38" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3353,21 +3345,21 @@
       <c r="C34" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="34" t="s">
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="23">
         <v>32</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="25" t="s">
         <v>163</v>
       </c>
       <c r="K34" s="6" t="s">
@@ -3380,24 +3372,24 @@
       <c r="N34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="57">
+      <c r="O34" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="38">
         <v>6</v>
       </c>
-      <c r="R34" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S34" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T34" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="U34" s="57" t="s">
-        <v>216</v>
+      <c r="R34" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S34" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T34" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="U34" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3410,23 +3402,23 @@
       <c r="C35" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="34" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="23">
         <v>33</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="26" t="s">
         <v>185</v>
       </c>
       <c r="K35" s="6" t="s">
@@ -3439,24 +3431,24 @@
       <c r="N35" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="O35" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="57">
+      <c r="O35" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="38">
         <v>6</v>
       </c>
-      <c r="R35" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S35" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T35" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="U35" s="57" t="s">
-        <v>216</v>
+      <c r="R35" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S35" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T35" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3469,14 +3461,12 @@
       <c r="C36" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="34" t="s">
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="15" t="s">
         <v>156</v>
       </c>
       <c r="H36" s="11">
@@ -3485,7 +3475,7 @@
       <c r="I36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="26" t="s">
         <v>187</v>
       </c>
       <c r="K36" s="6" t="s">
@@ -3496,22 +3486,22 @@
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="57">
+      <c r="O36" s="19"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="38">
         <v>8</v>
       </c>
-      <c r="R36" s="58" t="s">
+      <c r="R36" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S36" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="S36" s="57" t="s">
+      <c r="T36" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="U36" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="T36" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="U36" s="57" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3524,23 +3514,21 @@
       <c r="C37" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="34" t="s">
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="23">
         <v>35</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="26" t="s">
         <v>186</v>
       </c>
       <c r="K37" s="6" t="s">
@@ -3551,24 +3539,24 @@
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="57">
+      <c r="O37" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="38">
         <v>8</v>
       </c>
-      <c r="R37" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="S37" s="57" t="s">
+      <c r="R37" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="S37" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="T37" s="60" t="s">
+      <c r="T37" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="U37" s="57" t="s">
-        <v>206</v>
+      <c r="U37" s="38" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3581,14 +3569,12 @@
       <c r="C38" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="34" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="11">
@@ -3597,8 +3583,8 @@
       <c r="I38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="37" t="s">
-        <v>255</v>
+      <c r="J38" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>20</v>
@@ -3608,13 +3594,13 @@
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="57"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="38"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -3626,23 +3612,21 @@
       <c r="C39" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="42">
+      <c r="H39" s="23">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="37" t="s">
+      <c r="J39" s="18" t="s">
         <v>188</v>
       </c>
       <c r="K39" s="6" t="s">
@@ -3655,22 +3639,22 @@
       <c r="N39" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="38"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="57">
+      <c r="O39" s="19"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="38">
         <v>6</v>
       </c>
-      <c r="R39" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S39" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T39" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="U39" s="57" t="s">
-        <v>216</v>
+      <c r="R39" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S39" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T39" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3683,19 +3667,21 @@
       <c r="C40" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="42">
+      <c r="D40" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="23">
         <v>38</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="55"/>
+      <c r="J40" s="36"/>
       <c r="K40" s="6" t="s">
         <v>20</v>
       </c>
@@ -3706,692 +3692,692 @@
       <c r="N40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O40" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="57">
+      <c r="O40" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="38">
         <v>6</v>
       </c>
-      <c r="R40" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="S40" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="T40" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="U40" s="57" t="s">
-        <v>216</v>
+      <c r="R40" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="T40" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="41"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="55"/>
+      <c r="J41" s="36"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="50"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="31"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="41"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="55"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="50"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="31"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="41"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="55"/>
+      <c r="J43" s="36"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="50"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="31"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="41"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="55"/>
+      <c r="J44" s="36"/>
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="50"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="31"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="41"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="55"/>
+      <c r="J45" s="36"/>
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="50"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="31"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="41"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="55"/>
+      <c r="J46" s="36"/>
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="50"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="31"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="41"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="55"/>
+      <c r="J47" s="36"/>
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="50"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="31"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="41"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="55"/>
+      <c r="J48" s="36"/>
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="50"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="31"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="41"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="55"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="50"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="31"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="41"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="55"/>
+      <c r="J50" s="36"/>
       <c r="K50" s="6"/>
       <c r="L50" s="5"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="51"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="50"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="31"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="41"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="55"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="6"/>
       <c r="L51" s="5"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="50"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="31"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="41"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="55"/>
+      <c r="J52" s="36"/>
       <c r="K52" s="6"/>
       <c r="L52" s="5"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="51"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="50"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="31"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="41"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="55"/>
+      <c r="J53" s="36"/>
       <c r="K53" s="6"/>
       <c r="L53" s="5"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="50"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="31"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="41"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="55"/>
+      <c r="J54" s="36"/>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="50"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="31"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="41"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="36"/>
       <c r="K55" s="6"/>
       <c r="L55" s="5"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="50"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="31"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="41"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="55"/>
+      <c r="J56" s="36"/>
       <c r="K56" s="6"/>
       <c r="L56" s="5"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="51"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="50"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="31"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="41"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="55"/>
+      <c r="J57" s="36"/>
       <c r="K57" s="6"/>
       <c r="L57" s="5"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="50"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="31"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="41"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="55"/>
+      <c r="J58" s="36"/>
       <c r="K58" s="6"/>
       <c r="L58" s="5"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="50"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="50"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="31"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="41"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="22"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="55"/>
+      <c r="J59" s="36"/>
       <c r="K59" s="6"/>
       <c r="L59" s="5"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="50"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="31"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="41"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="55"/>
+      <c r="J60" s="36"/>
       <c r="K60" s="6"/>
       <c r="L60" s="5"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="50"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="31"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="41"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="55"/>
+      <c r="J61" s="36"/>
       <c r="K61" s="6"/>
       <c r="L61" s="5"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="50"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="50"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="50"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="31"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="41"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="55"/>
+      <c r="J62" s="36"/>
       <c r="K62" s="6"/>
       <c r="L62" s="5"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="50"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="31"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="41"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="22"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="55"/>
+      <c r="J63" s="36"/>
       <c r="K63" s="6"/>
       <c r="L63" s="5"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="50"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="50"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="50"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="31"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="41"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="55"/>
+      <c r="J64" s="36"/>
       <c r="K64" s="6"/>
       <c r="L64" s="5"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="50"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="31"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="41"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="22"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="55"/>
+      <c r="J65" s="36"/>
       <c r="K65" s="6"/>
       <c r="L65" s="5"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="50"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="50"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="50"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="31"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="31"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="41"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="55"/>
+      <c r="J66" s="36"/>
       <c r="K66" s="6"/>
       <c r="L66" s="5"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="50"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="31"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="31"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="41"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="22"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="55"/>
+      <c r="J67" s="36"/>
       <c r="K67" s="6"/>
       <c r="L67" s="5"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="50"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="31"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="41"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="55"/>
+      <c r="J68" s="36"/>
       <c r="K68" s="6"/>
       <c r="L68" s="5"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="51"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="50"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="31"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="41"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="22"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="55"/>
+      <c r="J69" s="36"/>
       <c r="K69" s="6"/>
       <c r="L69" s="5"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="50"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="31"/>
     </row>
     <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4407,187 +4393,187 @@
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
+      <c r="A94" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="20" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
+      <c r="A98" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="39" t="s">
+      <c r="A99" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
+      <c r="A100" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
+      <c r="A101" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39" t="s">
+      <c r="A102" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="39" t="s">
+      <c r="A103" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="39" t="s">
+      <c r="A108" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="39" t="s">
+      <c r="A109" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
+      <c r="A112" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="39" t="s">
+      <c r="A113" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="39" t="s">
+      <c r="A114" s="20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
+      <c r="A119" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="39" t="s">
+      <c r="A120" s="20" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4755,9 +4741,6 @@
     <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="U1:U2"/>

--- a/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="262">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1125,13 +1130,22 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,15 +1185,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,7 +1282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1489,8 +1494,8 @@
   <dimension ref="A1:U283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,94 +1524,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="58"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="43"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1648,7 +1653,9 @@
       <c r="O3" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q3" s="38">
         <v>6</v>
       </c>
@@ -1701,7 +1708,9 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="24"/>
-      <c r="P4" s="22"/>
+      <c r="P4" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q4" s="38">
         <v>8</v>
       </c>
@@ -1758,7 +1767,9 @@
       <c r="O5" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q5" s="38">
         <v>6</v>
       </c>
@@ -1813,7 +1824,9 @@
       <c r="O6" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q6" s="38">
         <v>6</v>
       </c>
@@ -1870,7 +1883,9 @@
       <c r="O7" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q7" s="38">
         <v>6</v>
       </c>
@@ -1923,7 +1938,9 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="22"/>
+      <c r="P8" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q8" s="38">
         <v>8</v>
       </c>
@@ -1980,7 +1997,9 @@
       <c r="O9" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q9" s="38">
         <v>6</v>
       </c>
@@ -2037,7 +2056,9 @@
         <v>121</v>
       </c>
       <c r="O10" s="24"/>
-      <c r="P10" s="22"/>
+      <c r="P10" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q10" s="38">
         <v>6</v>
       </c>
@@ -2090,7 +2111,9 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="22"/>
+      <c r="P11" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q11" s="38">
         <v>5</v>
       </c>
@@ -2145,7 +2168,9 @@
         <v>118</v>
       </c>
       <c r="O12" s="24"/>
-      <c r="P12" s="22"/>
+      <c r="P12" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q12" s="38">
         <v>6</v>
       </c>
@@ -2202,7 +2227,9 @@
       <c r="O13" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="P13" s="22"/>
+      <c r="P13" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="38">
         <v>6</v>
       </c>
@@ -2259,7 +2286,9 @@
         <v>121</v>
       </c>
       <c r="O14" s="19"/>
-      <c r="P14" s="22"/>
+      <c r="P14" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q14" s="38">
         <v>6</v>
       </c>
@@ -2312,7 +2341,9 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="22"/>
+      <c r="P15" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q15" s="38">
         <v>8</v>
       </c>
@@ -2365,7 +2396,9 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="22"/>
+      <c r="P16" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q16" s="38">
         <v>8</v>
       </c>
@@ -2422,7 +2455,9 @@
       <c r="O17" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="P17" s="22"/>
+      <c r="P17" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="38">
         <v>6</v>
       </c>
@@ -2479,7 +2514,9 @@
       <c r="O18" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="P18" s="22"/>
+      <c r="P18" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q18" s="38">
         <v>6</v>
       </c>
@@ -2536,7 +2573,9 @@
         <v>121</v>
       </c>
       <c r="O19" s="19"/>
-      <c r="P19" s="22"/>
+      <c r="P19" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q19" s="38">
         <v>6</v>
       </c>
@@ -2593,7 +2632,9 @@
       <c r="O20" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="P20" s="22"/>
+      <c r="P20" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q20" s="38">
         <v>6</v>
       </c>
@@ -2646,7 +2687,9 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="24"/>
-      <c r="P21" s="22"/>
+      <c r="P21" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q21" s="38">
         <v>8</v>
       </c>
@@ -2699,7 +2742,9 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="24"/>
-      <c r="P22" s="22"/>
+      <c r="P22" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q22" s="38">
         <v>8</v>
       </c>
@@ -2756,7 +2801,9 @@
       <c r="O23" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="P23" s="22"/>
+      <c r="P23" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="38">
         <v>6</v>
       </c>
@@ -2815,7 +2862,9 @@
       <c r="O24" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="P24" s="22"/>
+      <c r="P24" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q24" s="38">
         <v>6</v>
       </c>
@@ -2868,7 +2917,9 @@
       <c r="M25" s="7"/>
       <c r="N25" s="14"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="22"/>
+      <c r="P25" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q25" s="38">
         <v>6</v>
       </c>
@@ -2925,7 +2976,9 @@
       <c r="O26" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="P26" s="22"/>
+      <c r="P26" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="Q26" s="38">
         <v>6</v>
       </c>
@@ -2982,7 +3035,9 @@
       <c r="O27" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="P27" s="22"/>
+      <c r="P27" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q27" s="38">
         <v>6</v>
       </c>
@@ -3039,7 +3094,9 @@
         <v>121</v>
       </c>
       <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="P28" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q28" s="38">
         <v>6</v>
       </c>
@@ -3094,7 +3151,9 @@
         <v>41</v>
       </c>
       <c r="O29" s="19"/>
-      <c r="P29" s="22"/>
+      <c r="P29" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q29" s="38">
         <v>6</v>
       </c>
@@ -3151,7 +3210,9 @@
       <c r="O30" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="P30" s="22"/>
+      <c r="P30" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q30" s="38">
         <v>6</v>
       </c>
@@ -3210,7 +3271,9 @@
       <c r="O31" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="P31" s="22"/>
+      <c r="P31" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q31" s="38">
         <v>6</v>
       </c>
@@ -3263,7 +3326,9 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="19"/>
-      <c r="P32" s="22"/>
+      <c r="P32" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q32" s="38">
         <v>8</v>
       </c>
@@ -3318,7 +3383,9 @@
       <c r="O33" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P33" s="22"/>
+      <c r="P33" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q33" s="38">
         <v>8</v>
       </c>
@@ -3375,7 +3442,9 @@
       <c r="O34" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="P34" s="22"/>
+      <c r="P34" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q34" s="38">
         <v>6</v>
       </c>
@@ -3434,7 +3503,9 @@
       <c r="O35" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="P35" s="22"/>
+      <c r="P35" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q35" s="38">
         <v>6</v>
       </c>
@@ -3487,7 +3558,9 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="19"/>
-      <c r="P36" s="22"/>
+      <c r="P36" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q36" s="38">
         <v>8</v>
       </c>
@@ -3542,7 +3615,9 @@
       <c r="O37" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="P37" s="22"/>
+      <c r="P37" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q37" s="38">
         <v>8</v>
       </c>
@@ -3595,7 +3670,9 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="19"/>
-      <c r="P38" s="22"/>
+      <c r="P38" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q38" s="38"/>
       <c r="R38" s="39"/>
       <c r="S38" s="38"/>
@@ -3640,7 +3717,9 @@
         <v>33</v>
       </c>
       <c r="O39" s="19"/>
-      <c r="P39" s="22"/>
+      <c r="P39" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="Q39" s="38">
         <v>6</v>
       </c>
@@ -3695,7 +3774,9 @@
       <c r="O40" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="P40" s="22"/>
+      <c r="P40" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="38">
         <v>6</v>
       </c>
@@ -4742,12 +4823,6 @@
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4762,6 +4837,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4784,7 +4865,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I69 P29:P69 P3:P27 K3:K69</xm:sqref>
+          <xm:sqref>I3:I69 K3:K69 P3:P69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion05\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1130,22 +1125,13 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,6 +1171,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1247,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,7 +1277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1493,9 +1488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,94 +1519,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4823,6 +4818,12 @@
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4837,12 +4838,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="263">
   <si>
     <t>Asignatura</t>
   </si>
@@ -805,6 +810,9 @@
   </si>
   <si>
     <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Clara Melo</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1125,13 +1133,22 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,15 +1190,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,7 +1251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,7 +1286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1486,11 +1495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U283"/>
+  <dimension ref="A1:W283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,12 +1513,12 @@
     <col min="7" max="7" width="69.42578125" style="20" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="30" customWidth="1"/>
     <col min="9" max="9" width="11" style="30" customWidth="1"/>
-    <col min="10" max="10" width="78.42578125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="78.42578125" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="20" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="30" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="30" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="30" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="20" bestFit="1" customWidth="1"/>
@@ -1518,97 +1527,97 @@
     <col min="22" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="58"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1666,8 +1675,14 @@
       <c r="U3" s="38" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V3" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W3" s="61">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1722,7 +1737,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1780,8 +1795,14 @@
       <c r="U5" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V5" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W5" s="61">
+        <v>47088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1859,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1896,8 +1917,14 @@
       <c r="U7" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V7" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W7" s="61">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1952,7 +1979,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2010,8 +2037,14 @@
       <c r="U9" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V9" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W9" s="61">
+        <v>37987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2069,8 +2102,14 @@
       <c r="U10" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V10" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W10" s="61">
+        <v>47088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2164,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2181,8 +2220,14 @@
       <c r="U12" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V12" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W12" s="61">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2240,8 +2285,14 @@
       <c r="U13" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V13" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W13" s="61">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2299,8 +2350,14 @@
       <c r="U14" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V14" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W14" s="61">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2355,7 +2412,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -2410,7 +2467,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2468,8 +2525,14 @@
       <c r="U17" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V17" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W17" s="61">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2527,8 +2590,14 @@
       <c r="U18" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V18" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W18" s="61">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2586,8 +2655,14 @@
       <c r="U19" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V19" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W19" s="61">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -2645,8 +2720,14 @@
       <c r="U20" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V20" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W20" s="61">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2782,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2756,7 +2837,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2814,8 +2895,14 @@
       <c r="U23" s="38" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V23" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W23" s="61">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -2875,8 +2962,11 @@
       <c r="U24" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V24" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
@@ -2931,7 +3021,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -2989,8 +3079,14 @@
       <c r="U26" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V26" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W26" s="61">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -3048,8 +3144,14 @@
       <c r="U27" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V27" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W27" s="61">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
@@ -3107,8 +3209,14 @@
       <c r="U28" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V28" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W28" s="61">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -3164,8 +3272,14 @@
       <c r="U29" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V29" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W29" s="61">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -3223,8 +3337,14 @@
       <c r="U30" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W30" s="61">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -3284,8 +3404,14 @@
       <c r="U31" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V31" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W31" s="61">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
@@ -3340,7 +3466,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -3397,7 +3523,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -3455,8 +3581,14 @@
       <c r="U34" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V34" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W34" s="61">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -3516,8 +3648,14 @@
       <c r="U35" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V35" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W35" s="61">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +3710,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -3629,7 +3767,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
@@ -3674,7 +3812,7 @@
       <c r="T38" s="41"/>
       <c r="U38" s="38"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
@@ -3730,8 +3868,14 @@
       <c r="U39" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V39" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W39" s="61">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
@@ -3787,8 +3931,14 @@
       <c r="U40" s="38" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V40" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="W40" s="61">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="21"/>
       <c r="C41" s="35"/>
@@ -3811,7 +3961,7 @@
       <c r="T41" s="33"/>
       <c r="U41" s="31"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="21"/>
       <c r="C42" s="35"/>
@@ -3834,7 +3984,7 @@
       <c r="T42" s="33"/>
       <c r="U42" s="31"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="21"/>
       <c r="C43" s="35"/>
@@ -3857,7 +4007,7 @@
       <c r="T43" s="33"/>
       <c r="U43" s="31"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="21"/>
       <c r="C44" s="35"/>
@@ -3880,7 +4030,7 @@
       <c r="T44" s="33"/>
       <c r="U44" s="31"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="21"/>
       <c r="C45" s="35"/>
@@ -3903,7 +4053,7 @@
       <c r="T45" s="33"/>
       <c r="U45" s="31"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="21"/>
       <c r="C46" s="35"/>
@@ -3926,7 +4076,7 @@
       <c r="T46" s="33"/>
       <c r="U46" s="31"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="21"/>
       <c r="C47" s="35"/>
@@ -3949,7 +4099,7 @@
       <c r="T47" s="33"/>
       <c r="U47" s="31"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="21"/>
       <c r="C48" s="35"/>
@@ -4818,12 +4968,6 @@
     <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4838,6 +4982,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta MA_07_05_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\---Adriana\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="268">
   <si>
     <t>Asignatura</t>
   </si>
@@ -599,9 +599,6 @@
     <t>Actividad para identificar fracciones decimales</t>
   </si>
   <si>
-    <t>Definición del conjunto de los números racionales</t>
-  </si>
-  <si>
     <t>Consolidación</t>
   </si>
   <si>
@@ -611,9 +608,6 @@
     <t>La clasificación de los números decimales</t>
   </si>
   <si>
-    <t>La conversión de un número decimal o fracción</t>
-  </si>
-  <si>
     <t xml:space="preserve">La representación de los números racionales en la recta </t>
   </si>
   <si>
@@ -813,6 +807,27 @@
   </si>
   <si>
     <t>Clara Melo</t>
+  </si>
+  <si>
+    <t>La definición del conjunto de los números racionales</t>
+  </si>
+  <si>
+    <t>Las fracciones equivalentes</t>
+  </si>
+  <si>
+    <t>La clasificación de racionales</t>
+  </si>
+  <si>
+    <t>Los racionales inversos</t>
+  </si>
+  <si>
+    <t>Las fracciones decimales</t>
+  </si>
+  <si>
+    <t>La conversión de un número decimal a fracción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los números racionales en la recta numérica </t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1133,22 +1148,14 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,7 +1197,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,127 +1515,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X42" sqref="X42"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="9090" topLeftCell="G1"/>
+      <selection activeCell="D32" sqref="A32:XFD35"/>
+      <selection pane="topRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="20" customWidth="1"/>
     <col min="3" max="3" width="23" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="49.54296875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.453125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="30" customWidth="1"/>
     <col min="9" max="9" width="11" style="30" customWidth="1"/>
-    <col min="10" max="10" width="78.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="20" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="30" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="30" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="78.453125" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" style="20" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="20" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9.26953125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="37.81640625" style="30" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" style="30" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="20" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="20"/>
+    <col min="19" max="19" width="20.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7265625" style="20" customWidth="1"/>
+    <col min="22" max="16384" width="11.453125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="59" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="59"/>
+    </row>
+    <row r="3" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1627,8 +1646,8 @@
       <c r="C3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>191</v>
+      <c r="D3" s="62" t="s">
+        <v>261</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
@@ -1655,7 +1674,7 @@
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P3" s="23" t="s">
         <v>19</v>
@@ -1664,25 +1683,25 @@
         <v>6</v>
       </c>
       <c r="R3" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="T3" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="U3" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="T3" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>226</v>
-      </c>
       <c r="V3" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W3" s="61">
+        <v>260</v>
+      </c>
+      <c r="W3" s="42">
         <v>45261</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1692,8 +1711,8 @@
       <c r="C4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>191</v>
+      <c r="D4" s="62" t="s">
+        <v>261</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
@@ -1725,19 +1744,19 @@
         <v>8</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S4" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T4" s="41" t="s">
         <v>123</v>
       </c>
       <c r="U4" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1747,10 +1766,12 @@
       <c r="C5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="21"/>
+      <c r="D5" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="15" t="s">
         <v>125</v>
@@ -1775,7 +1796,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P5" s="23" t="s">
         <v>19</v>
@@ -1784,25 +1805,25 @@
         <v>6</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S5" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="U5" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T5" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="U5" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V5" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W5" s="61">
+        <v>260</v>
+      </c>
+      <c r="W5" s="42">
         <v>47088</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1812,8 +1833,8 @@
       <c r="C6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>191</v>
+      <c r="D6" s="62" t="s">
+        <v>261</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
@@ -1838,7 +1859,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="14"/>
       <c r="O6" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P6" s="23" t="s">
         <v>19</v>
@@ -1847,19 +1868,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="U6" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="S6" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="T6" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="U6" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1869,8 +1890,8 @@
       <c r="C7" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>191</v>
+      <c r="D7" s="62" t="s">
+        <v>261</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="22"/>
@@ -1897,7 +1918,7 @@
         <v>40</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P7" s="23" t="s">
         <v>19</v>
@@ -1906,25 +1927,25 @@
         <v>6</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S7" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="U7" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T7" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="U7" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V7" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W7" s="61">
+        <v>260</v>
+      </c>
+      <c r="W7" s="42">
         <v>37987</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1934,10 +1955,12 @@
       <c r="C8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="21"/>
+      <c r="D8" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>263</v>
+      </c>
       <c r="F8" s="22"/>
       <c r="G8" s="15" t="s">
         <v>128</v>
@@ -1967,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S8" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T8" s="41" t="s">
         <v>128</v>
       </c>
       <c r="U8" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1989,11 +2012,15 @@
       <c r="C9" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>264</v>
+      </c>
       <c r="G9" s="15" t="s">
         <v>129</v>
       </c>
@@ -2017,7 +2044,7 @@
         <v>118</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P9" s="23" t="s">
         <v>19</v>
@@ -2026,25 +2053,25 @@
         <v>6</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S9" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T9" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="U9" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T9" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="U9" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V9" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W9" s="61">
+        <v>260</v>
+      </c>
+      <c r="W9" s="42">
         <v>37987</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2054,11 +2081,11 @@
       <c r="C10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>192</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="15" t="s">
@@ -2091,25 +2118,25 @@
         <v>6</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S10" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="U10" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T10" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="U10" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V10" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W10" s="61">
+        <v>260</v>
+      </c>
+      <c r="W10" s="42">
         <v>47088</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2119,10 +2146,12 @@
       <c r="C11" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="21"/>
+      <c r="D11" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>265</v>
+      </c>
       <c r="F11" s="22"/>
       <c r="G11" s="15" t="s">
         <v>131</v>
@@ -2152,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="R11" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S11" s="38" t="s">
         <v>135</v>
@@ -2161,10 +2190,10 @@
         <v>131</v>
       </c>
       <c r="U11" s="38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2174,8 +2203,8 @@
       <c r="C12" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>193</v>
+      <c r="D12" s="62" t="s">
+        <v>192</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
@@ -2209,25 +2238,25 @@
         <v>6</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S12" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="U12" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T12" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="U12" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V12" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W12" s="61">
+        <v>260</v>
+      </c>
+      <c r="W12" s="42">
         <v>38353</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2237,8 +2266,8 @@
       <c r="C13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>193</v>
+      <c r="D13" s="62" t="s">
+        <v>192</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="22"/>
@@ -2265,7 +2294,7 @@
         <v>44</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P13" s="23" t="s">
         <v>20</v>
@@ -2274,25 +2303,25 @@
         <v>6</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T13" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="U13" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T13" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="U13" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V13" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W13" s="61">
+        <v>260</v>
+      </c>
+      <c r="W13" s="42">
         <v>38353</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2302,11 +2331,11 @@
       <c r="C14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>193</v>
+      <c r="D14" s="62" t="s">
+        <v>192</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="15" t="s">
@@ -2339,25 +2368,25 @@
         <v>6</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S14" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T14" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="U14" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T14" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V14" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W14" s="61">
+        <v>260</v>
+      </c>
+      <c r="W14" s="42">
         <v>38353</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2367,8 +2396,8 @@
       <c r="C15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>194</v>
+      <c r="D15" s="62" t="s">
+        <v>193</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="22"/>
@@ -2400,7 +2429,7 @@
         <v>8</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S15" s="38" t="s">
         <v>135</v>
@@ -2409,10 +2438,10 @@
         <v>135</v>
       </c>
       <c r="U15" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -2422,8 +2451,8 @@
       <c r="C16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>194</v>
+      <c r="D16" s="62" t="s">
+        <v>193</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
@@ -2455,19 +2484,19 @@
         <v>8</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S16" s="38" t="s">
         <v>135</v>
       </c>
       <c r="T16" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U16" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2477,8 +2506,8 @@
       <c r="C17" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>194</v>
+      <c r="D17" s="62" t="s">
+        <v>193</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
@@ -2505,7 +2534,7 @@
         <v>27</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P17" s="23" t="s">
         <v>20</v>
@@ -2514,25 +2543,25 @@
         <v>6</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S17" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T17" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="U17" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T17" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="U17" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V17" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W17" s="61">
+        <v>260</v>
+      </c>
+      <c r="W17" s="42">
         <v>38718</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2542,8 +2571,8 @@
       <c r="C18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>194</v>
+      <c r="D18" s="62" t="s">
+        <v>193</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
@@ -2570,7 +2599,7 @@
         <v>43</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P18" s="23" t="s">
         <v>19</v>
@@ -2579,25 +2608,25 @@
         <v>6</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S18" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="U18" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T18" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="U18" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V18" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W18" s="61">
+        <v>260</v>
+      </c>
+      <c r="W18" s="42">
         <v>38718</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2607,11 +2636,11 @@
       <c r="C19" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>194</v>
+      <c r="D19" s="62" t="s">
+        <v>193</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="15" t="s">
@@ -2644,25 +2673,25 @@
         <v>6</v>
       </c>
       <c r="R19" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S19" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="U19" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T19" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="U19" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V19" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W19" s="61">
+        <v>260</v>
+      </c>
+      <c r="W19" s="42">
         <v>38718</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -2672,8 +2701,8 @@
       <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>195</v>
+      <c r="D20" s="62" t="s">
+        <v>266</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
@@ -2700,7 +2729,7 @@
         <v>22</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P20" s="23" t="s">
         <v>19</v>
@@ -2709,25 +2738,25 @@
         <v>6</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S20" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T20" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="U20" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T20" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="U20" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V20" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W20" s="61">
+        <v>260</v>
+      </c>
+      <c r="W20" s="42">
         <v>38718</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2737,8 +2766,8 @@
       <c r="C21" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>195</v>
+      <c r="D21" s="62" t="s">
+        <v>266</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
@@ -2770,19 +2799,19 @@
         <v>8</v>
       </c>
       <c r="R21" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S21" s="38" t="s">
         <v>135</v>
       </c>
       <c r="T21" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U21" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2792,8 +2821,8 @@
       <c r="C22" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>195</v>
+      <c r="D22" s="62" t="s">
+        <v>266</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
@@ -2825,19 +2854,19 @@
         <v>8</v>
       </c>
       <c r="R22" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S22" s="38" t="s">
         <v>135</v>
       </c>
       <c r="T22" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U22" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2847,8 +2876,8 @@
       <c r="C23" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>195</v>
+      <c r="D23" s="62" t="s">
+        <v>266</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
@@ -2875,7 +2904,7 @@
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P23" s="23" t="s">
         <v>20</v>
@@ -2884,25 +2913,25 @@
         <v>6</v>
       </c>
       <c r="R23" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="S23" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="T23" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="U23" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="T23" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="U23" s="38" t="s">
-        <v>226</v>
-      </c>
       <c r="V23" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W23" s="61">
+        <v>260</v>
+      </c>
+      <c r="W23" s="42">
         <v>39814</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -2912,11 +2941,11 @@
       <c r="C24" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>195</v>
+      <c r="D24" s="62" t="s">
+        <v>266</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="15" t="s">
@@ -2942,7 +2971,7 @@
         <v>36</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P24" s="23" t="s">
         <v>19</v>
@@ -2951,22 +2980,22 @@
         <v>6</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S24" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T24" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="U24" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T24" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="U24" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V24" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
@@ -2976,8 +3005,8 @@
       <c r="C25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>196</v>
+      <c r="D25" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
@@ -3009,19 +3038,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="T25" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="U25" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="S25" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="T25" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="U25" s="38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -3032,7 +3061,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
@@ -3059,7 +3088,7 @@
         <v>38</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P26" s="23" t="s">
         <v>20</v>
@@ -3068,25 +3097,25 @@
         <v>6</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S26" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T26" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="U26" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T26" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="U26" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V26" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W26" s="61">
+        <v>260</v>
+      </c>
+      <c r="W26" s="42">
         <v>40909</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -3097,7 +3126,7 @@
         <v>123</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="22"/>
@@ -3124,7 +3153,7 @@
         <v>39</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P27" s="23" t="s">
         <v>19</v>
@@ -3133,25 +3162,25 @@
         <v>6</v>
       </c>
       <c r="R27" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S27" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T27" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="U27" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T27" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="U27" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V27" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W27" s="61">
+        <v>260</v>
+      </c>
+      <c r="W27" s="42">
         <v>41275</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
@@ -3162,10 +3191,10 @@
         <v>123</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="15" t="s">
@@ -3198,25 +3227,25 @@
         <v>6</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S28" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T28" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U28" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T28" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="U28" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V28" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W28" s="61">
+        <v>260</v>
+      </c>
+      <c r="W28" s="42">
         <v>40909</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -3227,7 +3256,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
@@ -3261,25 +3290,25 @@
         <v>6</v>
       </c>
       <c r="R29" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S29" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T29" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="U29" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T29" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="U29" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V29" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W29" s="61">
+        <v>260</v>
+      </c>
+      <c r="W29" s="42">
         <v>40909</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -3290,7 +3319,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
@@ -3317,7 +3346,7 @@
         <v>39</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P30" s="23" t="s">
         <v>19</v>
@@ -3326,25 +3355,25 @@
         <v>6</v>
       </c>
       <c r="R30" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S30" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T30" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="U30" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T30" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="U30" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V30" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W30" s="61">
+        <v>260</v>
+      </c>
+      <c r="W30" s="42">
         <v>41640</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -3355,10 +3384,10 @@
         <v>123</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="15" t="s">
@@ -3384,7 +3413,7 @@
         <v>121</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P31" s="23" t="s">
         <v>19</v>
@@ -3393,25 +3422,25 @@
         <v>6</v>
       </c>
       <c r="R31" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S31" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T31" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="U31" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T31" s="40" t="s">
+      <c r="V31" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="U31" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="V31" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W31" s="61">
+      <c r="W31" s="42">
         <v>41640</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
@@ -3422,7 +3451,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
@@ -3454,19 +3483,19 @@
         <v>8</v>
       </c>
       <c r="R32" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S32" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T32" s="41" t="s">
         <v>152</v>
       </c>
       <c r="U32" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +3506,7 @@
         <v>123</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="22"/>
@@ -3511,19 +3540,19 @@
         <v>8</v>
       </c>
       <c r="R33" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S33" s="38" t="s">
         <v>135</v>
       </c>
       <c r="T33" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U33" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -3534,7 +3563,7 @@
         <v>123</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="22"/>
@@ -3561,7 +3590,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P34" s="23" t="s">
         <v>19</v>
@@ -3570,25 +3599,25 @@
         <v>6</v>
       </c>
       <c r="R34" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S34" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T34" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="U34" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T34" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="U34" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V34" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W34" s="61">
+        <v>260</v>
+      </c>
+      <c r="W34" s="42">
         <v>42005</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -3599,10 +3628,10 @@
         <v>123</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="15" t="s">
@@ -3628,7 +3657,7 @@
         <v>121</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P35" s="23" t="s">
         <v>19</v>
@@ -3637,25 +3666,25 @@
         <v>6</v>
       </c>
       <c r="R35" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S35" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T35" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="U35" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T35" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="U35" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V35" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W35" s="61">
+        <v>260</v>
+      </c>
+      <c r="W35" s="42">
         <v>41640</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
@@ -3666,7 +3695,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="22"/>
@@ -3698,19 +3727,19 @@
         <v>8</v>
       </c>
       <c r="R36" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S36" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T36" s="41" t="s">
         <v>156</v>
       </c>
       <c r="U36" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -3721,7 +3750,7 @@
         <v>123</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="22"/>
@@ -3746,7 +3775,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P37" s="23" t="s">
         <v>19</v>
@@ -3755,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="R37" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S37" s="38" t="s">
         <v>135</v>
@@ -3764,10 +3793,10 @@
         <v>157</v>
       </c>
       <c r="U37" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
@@ -3778,7 +3807,7 @@
         <v>123</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="22"/>
@@ -3792,7 +3821,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>20</v>
@@ -3812,7 +3841,7 @@
       <c r="T38" s="41"/>
       <c r="U38" s="38"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
@@ -3823,7 +3852,7 @@
         <v>123</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="22"/>
@@ -3857,25 +3886,25 @@
         <v>6</v>
       </c>
       <c r="R39" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S39" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T39" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="U39" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T39" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="U39" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V39" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W39" s="61">
+        <v>260</v>
+      </c>
+      <c r="W39" s="42">
         <v>42005</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
@@ -3886,12 +3915,12 @@
         <v>123</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="22"/>
       <c r="G40" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H40" s="23">
         <v>38</v>
@@ -3911,7 +3940,7 @@
         <v>52</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P40" s="23" t="s">
         <v>20</v>
@@ -3920,25 +3949,25 @@
         <v>6</v>
       </c>
       <c r="R40" s="39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S40" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="T40" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="U40" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="T40" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="U40" s="38" t="s">
-        <v>215</v>
-      </c>
       <c r="V40" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="W40" s="61">
+        <v>260</v>
+      </c>
+      <c r="W40" s="42">
         <v>42005</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="21"/>
       <c r="C41" s="35"/>
@@ -3961,7 +3990,7 @@
       <c r="T41" s="33"/>
       <c r="U41" s="31"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="21"/>
       <c r="C42" s="35"/>
@@ -3984,7 +4013,7 @@
       <c r="T42" s="33"/>
       <c r="U42" s="31"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="21"/>
       <c r="C43" s="35"/>
@@ -4007,7 +4036,7 @@
       <c r="T43" s="33"/>
       <c r="U43" s="31"/>
     </row>
-    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="21"/>
       <c r="C44" s="35"/>
@@ -4030,7 +4059,7 @@
       <c r="T44" s="33"/>
       <c r="U44" s="31"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="21"/>
       <c r="C45" s="35"/>
@@ -4053,7 +4082,7 @@
       <c r="T45" s="33"/>
       <c r="U45" s="31"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="21"/>
       <c r="C46" s="35"/>
@@ -4076,7 +4105,7 @@
       <c r="T46" s="33"/>
       <c r="U46" s="31"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="21"/>
       <c r="C47" s="35"/>
@@ -4099,7 +4128,7 @@
       <c r="T47" s="33"/>
       <c r="U47" s="31"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="21"/>
       <c r="C48" s="35"/>
@@ -4122,7 +4151,7 @@
       <c r="T48" s="33"/>
       <c r="U48" s="31"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="21"/>
       <c r="C49" s="35"/>
@@ -4145,7 +4174,7 @@
       <c r="T49" s="33"/>
       <c r="U49" s="31"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="21"/>
       <c r="C50" s="35"/>
@@ -4168,7 +4197,7 @@
       <c r="T50" s="33"/>
       <c r="U50" s="31"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="21"/>
       <c r="C51" s="35"/>
@@ -4191,7 +4220,7 @@
       <c r="T51" s="33"/>
       <c r="U51" s="31"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="21"/>
       <c r="C52" s="35"/>
@@ -4214,7 +4243,7 @@
       <c r="T52" s="33"/>
       <c r="U52" s="31"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="21"/>
       <c r="C53" s="35"/>
@@ -4237,7 +4266,7 @@
       <c r="T53" s="33"/>
       <c r="U53" s="31"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="21"/>
       <c r="C54" s="35"/>
@@ -4260,7 +4289,7 @@
       <c r="T54" s="33"/>
       <c r="U54" s="31"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="21"/>
       <c r="C55" s="35"/>
@@ -4283,7 +4312,7 @@
       <c r="T55" s="33"/>
       <c r="U55" s="31"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="21"/>
       <c r="C56" s="35"/>
@@ -4306,7 +4335,7 @@
       <c r="T56" s="33"/>
       <c r="U56" s="31"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="21"/>
       <c r="C57" s="35"/>
@@ -4329,7 +4358,7 @@
       <c r="T57" s="33"/>
       <c r="U57" s="31"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="21"/>
       <c r="C58" s="35"/>
@@ -4352,7 +4381,7 @@
       <c r="T58" s="33"/>
       <c r="U58" s="31"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="21"/>
       <c r="C59" s="35"/>
@@ -4375,7 +4404,7 @@
       <c r="T59" s="33"/>
       <c r="U59" s="31"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="21"/>
       <c r="C60" s="35"/>
@@ -4398,7 +4427,7 @@
       <c r="T60" s="33"/>
       <c r="U60" s="31"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="21"/>
       <c r="C61" s="35"/>
@@ -4421,7 +4450,7 @@
       <c r="T61" s="33"/>
       <c r="U61" s="31"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="21"/>
       <c r="C62" s="35"/>
@@ -4444,7 +4473,7 @@
       <c r="T62" s="33"/>
       <c r="U62" s="31"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="21"/>
       <c r="C63" s="35"/>
@@ -4467,7 +4496,7 @@
       <c r="T63" s="33"/>
       <c r="U63" s="31"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="21"/>
       <c r="C64" s="35"/>
@@ -4490,7 +4519,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="31"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="21"/>
       <c r="C65" s="35"/>
@@ -4513,7 +4542,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="31"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="21"/>
       <c r="C66" s="35"/>
@@ -4536,7 +4565,7 @@
       <c r="T66" s="33"/>
       <c r="U66" s="31"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="21"/>
       <c r="C67" s="35"/>
@@ -4559,7 +4588,7 @@
       <c r="T67" s="33"/>
       <c r="U67" s="31"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="21"/>
       <c r="C68" s="35"/>
@@ -4582,7 +4611,7 @@
       <c r="T68" s="33"/>
       <c r="U68" s="31"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="21"/>
       <c r="C69" s="35"/>
@@ -4605,369 +4634,375 @@
       <c r="T69" s="33"/>
       <c r="U69" s="31"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4982,12 +5017,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5038,27 +5067,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.453125" style="1"/>
+    <col min="14" max="14" width="24.26953125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5075,7 +5104,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5099,7 +5128,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5118,7 +5147,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5137,7 +5166,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5153,7 +5182,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5170,7 +5199,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5187,7 +5216,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5202,7 +5231,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5217,7 +5246,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5232,7 +5261,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5247,7 +5276,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5262,7 +5291,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5277,7 +5306,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5292,7 +5321,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5307,7 +5336,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5322,7 +5351,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -5336,7 +5365,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -5350,7 +5379,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -5364,7 +5393,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -5378,7 +5407,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5393,7 +5422,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5408,7 +5437,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5423,7 +5452,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5438,7 +5467,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5453,7 +5482,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5468,7 +5497,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5483,7 +5512,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5498,7 +5527,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5513,7 +5542,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5528,7 +5557,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5543,7 +5572,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5558,7 +5587,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5573,7 +5602,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5588,7 +5617,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5603,7 +5632,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5618,7 +5647,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5633,7 +5662,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5648,7 +5677,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5663,7 +5692,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5678,7 +5707,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5693,7 +5722,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5708,7 +5737,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5723,7 +5752,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5738,7 +5767,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5753,7 +5782,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5768,7 +5797,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5783,7 +5812,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5798,7 +5827,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5810,7 +5839,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5822,7 +5851,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5835,7 +5864,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5848,7 +5877,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5861,7 +5890,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5874,7 +5903,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5887,7 +5916,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5900,7 +5929,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5913,7 +5942,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5926,7 +5955,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5939,7 +5968,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5952,7 +5981,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5965,7 +5994,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5978,7 +6007,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5991,7 +6020,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -6004,7 +6033,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -6017,7 +6046,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -6030,7 +6059,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -6043,7 +6072,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -6056,7 +6085,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6069,7 +6098,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6082,7 +6111,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6096,7 +6125,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6110,7 +6139,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6124,7 +6153,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6138,7 +6167,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6152,7 +6181,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6166,7 +6195,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6180,7 +6209,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6194,7 +6223,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6208,7 +6237,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6222,7 +6251,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6236,7 +6265,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6250,7 +6279,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6264,7 +6293,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6278,7 +6307,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6292,7 +6321,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6306,7 +6335,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6320,7 +6349,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6334,7 +6363,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6348,7 +6377,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6362,7 +6391,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6376,7 +6405,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6390,7 +6419,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6404,7 +6433,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6418,7 +6447,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6432,7 +6461,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6446,7 +6475,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6460,7 +6489,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6474,7 +6503,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6488,7 +6517,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6502,7 +6531,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6516,7 +6545,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6530,7 +6559,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6544,7 +6573,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6558,7 +6587,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6572,7 +6601,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6586,7 +6615,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6600,7 +6629,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6614,7 +6643,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6628,7 +6657,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6642,7 +6671,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6656,7 +6685,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6670,7 +6699,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6684,7 +6713,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6698,7 +6727,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6712,7 +6741,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6726,7 +6755,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6740,7 +6769,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6754,7 +6783,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6768,7 +6797,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6782,7 +6811,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6796,7 +6825,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6810,7 +6839,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6824,7 +6853,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6838,7 +6867,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6852,7 +6881,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6866,7 +6895,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6880,7 +6909,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6894,7 +6923,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6908,7 +6937,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6922,7 +6951,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6936,7 +6965,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6950,7 +6979,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
